--- a/biology/Botanique/Anagallis_crassifolia/Anagallis_crassifolia.xlsx
+++ b/biology/Botanique/Anagallis_crassifolia/Anagallis_crassifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anagallis crassifolia (Basionyme), appelée parfois « mouron à feuilles charnues », est une espèce de plantes à fleurs de la famille des Primulaceae selon la classification classique, ou de celle des Myrsinaceae selon la classification phylogénétique.
 Synonyme :
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace. Ses tiges atteignent 5 à 15 cm de hauteur. Les feuilles, alternes, sont épaisses et luisantes. Ses fleurs sont blanches.
 </t>
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle vivait dans les lieux humides et sablonneux du Maroc et d'Algérie (Afrique). En Europe, on la retrouvait en Espagne, au Portugal et au sud-ouest de la France (Gironde, Landes et Pyrénées-Atlantiques). Néanmoins, cette espèce, rare, voit sa population décroître. Elle a disparu de la Gironde et n'est plus signalée dans les Pyrénées-Atlantiques.
 Pour ce qui est de la France, on ne retrouverait plus que dans les Landes.
@@ -576,7 +592,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est inscrite sur la liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain, en Annexe I.
 Sur les autres projets Wikimedia :
